--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\SeleniumCasaFramework\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFE0283-FE70-4D0D-B4AB-24F8D2A97F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0096A6A0-6A3F-449D-86F0-6E2C69C05641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2270" yWindow="570" windowWidth="14400" windowHeight="7440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
+    <sheet name="validacion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Usuario</t>
   </si>
@@ -102,6 +103,9 @@
   </si>
   <si>
     <t>Impresionante recorrido en barco de 2 horas con unas vistas increíbles de Miami</t>
+  </si>
+  <si>
+    <t>Este correo electrónico ya está conectado a una cuenta</t>
   </si>
 </sst>
 </file>
@@ -525,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,4 +646,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2816E06C-5E1E-407C-ABE5-3BB2DDE8DC4A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>